--- a/projects/02-OpenMP/01-report/charts.xlsx
+++ b/projects/02-OpenMP/01-report/charts.xlsx
@@ -5953,7 +5953,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/projects/02-OpenMP/01-report/charts.xlsx
+++ b/projects/02-OpenMP/01-report/charts.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11100" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="strong" sheetId="1" r:id="rId1"/>
     <sheet name="weak" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Threads</t>
   </si>
@@ -68,12 +69,24 @@
   <si>
     <t>efficiency-n8000</t>
   </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>speep-up</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +117,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +150,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,24 +160,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -176,68 +223,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Speep-Up</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> T1/Tp</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -252,7 +238,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed-up-n1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -324,7 +310,7 @@
                   <c:v>2.011186307334016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.794548775749822</c:v>
+                  <c:v>3.518365692524043</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.794548775749822</c:v>
@@ -352,7 +338,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed-up-n2000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -452,7 +438,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed-up-n4000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -552,7 +538,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed-up-n8000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -651,11 +637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1632917648"/>
-        <c:axId val="1652848784"/>
+        <c:axId val="1635330416"/>
+        <c:axId val="1660666256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1632917648"/>
+        <c:axId val="1635330416"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -676,6 +662,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -712,13 +755,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652848784"/>
+        <c:crossAx val="1660666256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1652848784"/>
+        <c:axId val="1660666256"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -737,6 +781,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -773,7 +873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1632917648"/>
+        <c:crossAx val="1635330416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -786,7 +886,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -868,63 +968,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Efficiency Sp/P</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -939,7 +983,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficiency-n1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1011,7 +1055,7 @@
                   <c:v>1.005593153667008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.448637193937456</c:v>
+                  <c:v>0.879591423131011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.724318596968728</c:v>
@@ -1039,7 +1083,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficiency-n2000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1139,7 +1183,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficiency-n4000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1239,7 +1283,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficiency-n8000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,11 +1382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1633603008"/>
-        <c:axId val="1628939840"/>
+        <c:axId val="1655970512"/>
+        <c:axId val="1633657920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1633603008"/>
+        <c:axId val="1655970512"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1363,6 +1407,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1399,14 +1500,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1628939840"/>
+        <c:crossAx val="1633657920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1628939840"/>
+        <c:axId val="1633657920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1424,6 +1527,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency (T1/Tp)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1460,9 +1619,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633603008"/>
+        <c:crossAx val="1655970512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.02"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1473,7 +1633,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1555,68 +1715,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Speep-Up</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> T1/Tp</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1631,7 +1730,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed-up-n1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1731,7 +1830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed-up-n2000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1831,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed-up-n4000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1931,7 +2030,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speed-up-n8000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2030,11 +2129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1724241968"/>
-        <c:axId val="1724244752"/>
+        <c:axId val="1656139088"/>
+        <c:axId val="1656128720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1724241968"/>
+        <c:axId val="1656139088"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2055,6 +2154,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2091,13 +2246,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724244752"/>
+        <c:crossAx val="1656128720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1724244752"/>
+        <c:axId val="1656128720"/>
         <c:scaling>
+          <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2116,6 +2272,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2152,7 +2364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724241968"/>
+        <c:crossAx val="1656139088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2165,7 +2377,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2247,63 +2459,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Efficiency Sp/P</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2318,7 +2474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficiency-n1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2418,7 +2574,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficiency-n2000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2518,7 +2674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficiency-n4000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2618,7 +2774,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efficiency-n8000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2717,11 +2873,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1727489536"/>
-        <c:axId val="1727486656"/>
+        <c:axId val="1660677040"/>
+        <c:axId val="1660679600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1727489536"/>
+        <c:axId val="1660677040"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2742,6 +2898,179 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1660679600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1660679600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency (T1/Tp)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2778,68 +3107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727486656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1727486656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1727489536"/>
+        <c:crossAx val="1660677040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2852,7 +3120,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5253,10 +5521,10 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5543,10 +5811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5564,38 +5832,38 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="C1">
+        <v>1000</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="F1">
+        <v>2000</v>
+      </c>
+      <c r="G1">
+        <v>2000</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="I1">
+        <v>4000</v>
+      </c>
+      <c r="J1">
+        <v>4000</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
+      <c r="L1" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M1" s="3">
+        <v>8000</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5701,15 +5969,15 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.46587699999999999</v>
+        <v>0.76727299999999998</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="2"/>
-        <v>5.7945487757498224</v>
+        <v>3.5183656925240427</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4486371939374556</v>
+        <f>C4/$A4</f>
+        <v>0.87959142313101069</v>
       </c>
       <c r="E4">
         <v>2.755932</v>
@@ -5757,7 +6025,7 @@
         <v>5.7945487757498224</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="3"/>
+        <f>C5/$A5</f>
         <v>0.7243185969687278</v>
       </c>
       <c r="E5">
@@ -5940,6 +6208,17 @@
         <f t="shared" si="6"/>
         <v>0.8111317279069431</v>
       </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5950,20 +6229,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" customWidth="1"/>
@@ -5972,48 +6251,49 @@
     <col min="13" max="13" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="C1">
+        <v>1000</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+      <c r="F1">
+        <v>2000</v>
+      </c>
+      <c r="G1" s="7">
+        <v>2000</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="I1">
+        <v>4000</v>
+      </c>
+      <c r="J1">
+        <v>4000</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="L1" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M1" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6062,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6111,7 +6391,7 @@
         <v>0.99702946249105262</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6160,7 +6440,7 @@
         <v>0.94532064800091553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -6209,7 +6489,7 @@
         <v>0.94463728574271788</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
@@ -6221,7 +6501,7 @@
         <v>9.1425966395586276</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D3:D8" si="7">C6/$A6</f>
+        <f t="shared" ref="D6:D8" si="7">C6/$A6</f>
         <v>0.57141228997241422</v>
       </c>
       <c r="E6">
@@ -6258,7 +6538,7 @@
         <v>0.9358362745183334</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32</v>
       </c>
@@ -6307,7 +6587,7 @@
         <v>0.90411601359677574</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64</v>
       </c>
@@ -6360,4 +6640,926 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.6995469999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B$3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3/$A3</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.5519729999999998</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.342266</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C6" si="0">B$3/B4</f>
+        <v>2.0111863073340159</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D8" si="1">C4/$A4</f>
+        <v>1.005593153667008</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.307288</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.76727299999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5183656925240427</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.87959142313101069</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.71398099999999998</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.46587699999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7945487757498224</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7243185969687278</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.40725600000000001</v>
+      </c>
+      <c r="I6" s="6">
+        <v>6.27</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0.34084799999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B$3/B7</f>
+        <v>7.9200904802140544</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4950056550133784</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.27912999999999999</v>
+      </c>
+      <c r="I7" s="6">
+        <v>9.14</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>0.37833800000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B$3/B8</f>
+        <v>7.1352785075778797</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22297745336180874</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.30300500000000002</v>
+      </c>
+      <c r="I8" s="6">
+        <v>8.42</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>0.52720900000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B$3/B9</f>
+        <v>5.1204493853481248</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9/$A9</f>
+        <v>8.000702164606445E-2</v>
+      </c>
+      <c r="G9">
+        <v>64</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.447266</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5.71</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>10.702173999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <f>B$12/B12</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12/$A3</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10.067885</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>5.1709009999999997</v>
+      </c>
+      <c r="C13" s="1">
+        <f>B$12/B13</f>
+        <v>2.069692303140207</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C13/$A4</f>
+        <v>1.0348461515701035</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5.0854860000000004</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2.755932</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B$12/B14</f>
+        <v>3.8833229557187909</v>
+      </c>
+      <c r="D14" s="2">
+        <f>C14/$A5</f>
+        <v>0.97083073892969773</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.6986629999999998</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3.73</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>1.4683889999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B$12/B15</f>
+        <v>7.2883779434468661</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C15/$A6</f>
+        <v>0.91104724293085826</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.3996219999999999</v>
+      </c>
+      <c r="I15" s="6">
+        <v>7.19</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.84648599999999996</v>
+      </c>
+      <c r="C16" s="1">
+        <f>B$12/B16</f>
+        <v>12.643060842116704</v>
+      </c>
+      <c r="D16" s="2">
+        <f>C16/$A7</f>
+        <v>0.79019130263229398</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.78047</v>
+      </c>
+      <c r="I16" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0.63690599999999997</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B$12/B17</f>
+        <v>16.803380718661781</v>
+      </c>
+      <c r="D17" s="2">
+        <f>C17/$A8</f>
+        <v>0.52510564745818067</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.55523699999999998</v>
+      </c>
+      <c r="I17" s="6">
+        <v>18.13</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>0.68998899999999996</v>
+      </c>
+      <c r="C18" s="1">
+        <f>B$12/B18</f>
+        <v>15.510644372591447</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C18/$A9</f>
+        <v>0.24235381832174135</v>
+      </c>
+      <c r="G18">
+        <v>64</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.57432799999999995</v>
+      </c>
+      <c r="I18" s="6">
+        <v>17.53</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>42.174894999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <f>B$21/B21</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21/$A3</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>39.986649999999997</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>20.477444999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <f>B$21/B22</f>
+        <v>2.0595779893438855</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22/$A4</f>
+        <v>1.0297889946719427</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>20.032609000000001</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>10.593958000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <f>B$21/B23</f>
+        <v>3.9810328679800313</v>
+      </c>
+      <c r="D23" s="2">
+        <f>C23/$A5</f>
+        <v>0.99525821699500783</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10.537717000000001</v>
+      </c>
+      <c r="I23" s="6">
+        <v>3.79</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>5.3758540000000004</v>
+      </c>
+      <c r="C24" s="1">
+        <f>B$21/B24</f>
+        <v>7.8452456112089344</v>
+      </c>
+      <c r="D24" s="2">
+        <f>C24/$A6</f>
+        <v>0.9806557014011168</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5.3241759999999996</v>
+      </c>
+      <c r="I24" s="6">
+        <v>7.51</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>2.8047870000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <f>B$21/B25</f>
+        <v>15.03675501918684</v>
+      </c>
+      <c r="D25" s="2">
+        <f>C25/$A7</f>
+        <v>0.9397971886991775</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.7537259999999999</v>
+      </c>
+      <c r="I25" s="6">
+        <v>14.52</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>1.5988180000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <f>B$21/B26</f>
+        <v>26.378796711070301</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26/$A8</f>
+        <v>0.8243373972209469</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1.5324899999999999</v>
+      </c>
+      <c r="I26" s="6">
+        <v>26.09</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>1.1553819999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <f>B$21/B27</f>
+        <v>36.502987756430343</v>
+      </c>
+      <c r="D27" s="2">
+        <f>C27/$A9</f>
+        <v>0.57035918369422411</v>
+      </c>
+      <c r="G27">
+        <v>64</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1.0751329999999999</v>
+      </c>
+      <c r="I27" s="6">
+        <v>37.19</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>161.39912100000001</v>
+      </c>
+      <c r="C30" s="1">
+        <f>B$30/B30</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <f>C30/$A3</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>158.33654999999999</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>80.410162</v>
+      </c>
+      <c r="C31" s="1">
+        <f>B$30/B31</f>
+        <v>2.0071980578773116</v>
+      </c>
+      <c r="D31" s="2">
+        <f>C31/$A4</f>
+        <v>1.0035990289386558</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>79.404148000000006</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>41.872722000000003</v>
+      </c>
+      <c r="C32" s="1">
+        <f>B$30/B32</f>
+        <v>3.8545170528918562</v>
+      </c>
+      <c r="D32" s="2">
+        <f>C32/$A5</f>
+        <v>0.96362926322296405</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>41.873767999999998</v>
+      </c>
+      <c r="I32" s="6">
+        <v>3.78</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>21.005236</v>
+      </c>
+      <c r="C33" s="1">
+        <f>B$30/B33</f>
+        <v>7.6837566119228562</v>
+      </c>
+      <c r="D33" s="2">
+        <f>C33/$A6</f>
+        <v>0.96046957649035702</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>20.952030000000001</v>
+      </c>
+      <c r="I33" s="6">
+        <v>7.56</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>10.634796</v>
+      </c>
+      <c r="C34" s="1">
+        <f>B$30/B34</f>
+        <v>15.176513117882093</v>
+      </c>
+      <c r="D34" s="2">
+        <f>C34/$A7</f>
+        <v>0.94853206986763083</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34" s="3">
+        <v>10.574536</v>
+      </c>
+      <c r="I34" s="6">
+        <v>14.97</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>5.5176569999999998</v>
+      </c>
+      <c r="C35" s="1">
+        <f>B$30/B35</f>
+        <v>29.251387137692685</v>
+      </c>
+      <c r="D35" s="2">
+        <f>C35/$A8</f>
+        <v>0.91410584805289641</v>
+      </c>
+      <c r="G35">
+        <v>32</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5.4727680000000003</v>
+      </c>
+      <c r="I35" s="6">
+        <v>28.93</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>3.1090650000000002</v>
+      </c>
+      <c r="C36" s="1">
+        <f>B$30/B36</f>
+        <v>51.912430586044358</v>
+      </c>
+      <c r="D36" s="2">
+        <f>C36/$A9</f>
+        <v>0.8111317279069431</v>
+      </c>
+      <c r="G36">
+        <v>64</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3.098319</v>
+      </c>
+      <c r="I36" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/projects/02-OpenMP/01-report/charts.xlsx
+++ b/projects/02-OpenMP/01-report/charts.xlsx
@@ -5813,8 +5813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6231,8 +6231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/projects/02-OpenMP/01-report/charts.xlsx
+++ b/projects/02-OpenMP/01-report/charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="strong" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Threads</t>
   </si>
@@ -80,6 +80,33 @@
   </si>
   <si>
     <t>efficiency</t>
+  </si>
+  <si>
+    <t>runtime-n1414</t>
+  </si>
+  <si>
+    <t>runtime-n2828</t>
+  </si>
+  <si>
+    <t>runtime-n5657</t>
+  </si>
+  <si>
+    <t>speed-up-n1414</t>
+  </si>
+  <si>
+    <t>efficiency-n1414</t>
+  </si>
+  <si>
+    <t>speed-up-n2828</t>
+  </si>
+  <si>
+    <t>efficiency-n2828</t>
+  </si>
+  <si>
+    <t>speed-up-n5657</t>
+  </si>
+  <si>
+    <t>efficiency-n5657</t>
   </si>
 </sst>
 </file>
@@ -172,17 +199,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -637,11 +662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1635330416"/>
-        <c:axId val="1660666256"/>
+        <c:axId val="1635530144"/>
+        <c:axId val="1660714560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1635330416"/>
+        <c:axId val="1635530144"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -755,12 +780,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660666256"/>
+        <c:crossAx val="1660714560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1660666256"/>
+        <c:axId val="1660714560"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -873,7 +898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635330416"/>
+        <c:crossAx val="1635530144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1382,11 +1407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1655970512"/>
-        <c:axId val="1633657920"/>
+        <c:axId val="1727874432"/>
+        <c:axId val="1722438512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1655970512"/>
+        <c:axId val="1727874432"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1500,12 +1525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633657920"/>
+        <c:crossAx val="1722438512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1633657920"/>
+        <c:axId val="1722438512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1619,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655970512"/>
+        <c:crossAx val="1727874432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.02"/>
@@ -1799,22 +1824,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.952112311900668</c:v>
+                  <c:v>1.938736575595666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.574286990830288</c:v>
+                  <c:v>3.43579980672665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.26626249828118</c:v>
+                  <c:v>5.533182369454409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.142596639558627</c:v>
+                  <c:v>7.329586594877585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.42221415488193</c:v>
+                  <c:v>6.63539558394272</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.705716508744237</c:v>
+                  <c:v>4.556188347853414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,7 +1855,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>1414</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1899,22 +1924,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.97972917436013</c:v>
+                  <c:v>1.906326916125923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.730693680537363</c:v>
+                  <c:v>3.550931136446673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.193288616497884</c:v>
+                  <c:v>6.437872753187588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.89977193229721</c:v>
+                  <c:v>9.87068690214485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.1325902272363</c:v>
+                  <c:v>10.63831196508508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.52985227953365</c:v>
+                  <c:v>7.960899852949544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,7 +1955,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1999,22 +2024,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.99607799463365</c:v>
+                  <c:v>1.978434971907466</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.794621738275946</c:v>
+                  <c:v>3.693404348899685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.51039221843906</c:v>
+                  <c:v>6.934195352611449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.5209254660776</c:v>
+                  <c:v>11.94205776871645</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.09260093051178</c:v>
+                  <c:v>15.73649669543293</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.1922822571719</c:v>
+                  <c:v>14.80021911152312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2055,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8000</c:v>
+                  <c:v>2828</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2099,22 +2124,328 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.994058924982105</c:v>
+                  <c:v>1.977778072142281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.781282592003662</c:v>
+                  <c:v>3.752410910982816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.557098285941743</c:v>
+                  <c:v>7.272478510195298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.97338039229333</c:v>
+                  <c:v>13.37877289380964</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.93171243509682</c:v>
+                  <c:v>20.81946677405693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.10401801751208</c:v>
+                  <c:v>23.4183726739191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.009471383751848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.801718436884134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.458537748711667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.292437232598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.31421463367009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.8394152441152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5657</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$R$2:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.988361740183187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.792283995646377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.508815111317749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.62465580552455</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0551910918776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.12028253427541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$U$2:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.99677036677179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.805756410833298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.567831929699995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.93812675465993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.64418300935576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.12791049574771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,11 +2460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1656139088"/>
-        <c:axId val="1656128720"/>
+        <c:axId val="1594659504"/>
+        <c:axId val="1656330960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1656139088"/>
+        <c:axId val="1594659504"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2246,12 +2577,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656128720"/>
+        <c:crossAx val="1656330960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1656128720"/>
+        <c:axId val="1656330960"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2364,7 +2695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656139088"/>
+        <c:crossAx val="1594659504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2543,22 +2874,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.976056155950334</c:v>
+                  <c:v>0.969368287797833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.893571747707572</c:v>
+                  <c:v>0.858949951681662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.783282812285147</c:v>
+                  <c:v>0.691647796181801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.571412289972414</c:v>
+                  <c:v>0.458099162179849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26319419234006</c:v>
+                  <c:v>0.20735611199821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0891518204491287</c:v>
+                  <c:v>0.0711904429352096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,7 +2905,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>1414</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2643,22 +2974,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.989864587180065</c:v>
+                  <c:v>0.953163458062961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.932673420134341</c:v>
+                  <c:v>0.887732784111668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.899161077062235</c:v>
+                  <c:v>0.804734094148448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.806235745768575</c:v>
+                  <c:v>0.616917931384053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.566643444601134</c:v>
+                  <c:v>0.332447248908909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.273903941867713</c:v>
+                  <c:v>0.124389060202337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,7 +3005,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2743,22 +3074,22 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.998038997316825</c:v>
+                  <c:v>0.989217485953733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.948655434568987</c:v>
+                  <c:v>0.923351087224921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.938799027304882</c:v>
+                  <c:v>0.866774419076431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90755784162985</c:v>
+                  <c:v>0.746378610544778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.815393779078493</c:v>
+                  <c:v>0.491765521732279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.581129410268311</c:v>
+                  <c:v>0.231253423617549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,7 +3105,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8000</c:v>
+                  <c:v>2828</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2843,22 +3174,328 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.997029462491053</c:v>
+                  <c:v>0.988889036071141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.945320648000915</c:v>
+                  <c:v>0.938102727745704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.944637285742718</c:v>
+                  <c:v>0.909059813774412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.935836274518333</c:v>
+                  <c:v>0.836173305863102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.904116013596776</c:v>
+                  <c:v>0.650608336689279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.798500281523626</c:v>
+                  <c:v>0.365912073029986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.004735691875924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.950429609221033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.932317218588958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.893277327037374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75981920730219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5287408631893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5657</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$S$2:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.994180870091594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.948070998911594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.938601888914719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.914040987845284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.845474721621175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.673754414598053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weak!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>weak!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>weak!$V$2:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.998385183385895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.951439102708324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.945978991212499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.933632922166246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.895130719042367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.783248601496058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,11 +3510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1660677040"/>
-        <c:axId val="1660679600"/>
+        <c:axId val="1724212704"/>
+        <c:axId val="1724777200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1660677040"/>
+        <c:axId val="1724212704"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2990,12 +3627,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660679600"/>
+        <c:crossAx val="1724777200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1660679600"/>
+        <c:axId val="1724777200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,7 +3744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660677040"/>
+        <c:crossAx val="1724212704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5489,10 +6126,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5517,14 +6154,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5813,8 +6450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5923,18 +6560,18 @@
         <v>1.342266</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C5" si="2">B$2/B3</f>
+        <f>B$2/B3</f>
         <v>2.0111863073340159</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D7" si="3">C3/$A3</f>
+        <f>C3/$A3</f>
         <v>1.005593153667008</v>
       </c>
       <c r="E3">
         <v>5.1709009999999997</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="4">E$2/E3</f>
+        <f t="shared" ref="F3:F6" si="2">E$2/E3</f>
         <v>2.069692303140207</v>
       </c>
       <c r="G3" s="2">
@@ -5949,7 +6586,7 @@
         <v>2.0595779893438855</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J8" si="5">I3/$A3</f>
+        <f t="shared" ref="J3:J8" si="3">I3/$A3</f>
         <v>1.0297889946719427</v>
       </c>
       <c r="K3">
@@ -5960,7 +6597,7 @@
         <v>2.0071980578773116</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M8" si="6">L3/$A3</f>
+        <f t="shared" ref="M3:M8" si="4">L3/$A3</f>
         <v>1.0035990289386558</v>
       </c>
     </row>
@@ -5972,7 +6609,7 @@
         <v>0.76727299999999998</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C3:C5" si="5">B$2/B4</f>
         <v>3.5183656925240427</v>
       </c>
       <c r="D4" s="2">
@@ -5983,7 +6620,7 @@
         <v>2.755932</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.8833229557187909</v>
       </c>
       <c r="G4" s="2">
@@ -5998,7 +6635,7 @@
         <v>3.9810328679800313</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.99525821699500783</v>
       </c>
       <c r="K4">
@@ -6009,7 +6646,7 @@
         <v>3.8545170528918562</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.96362926322296405</v>
       </c>
     </row>
@@ -6021,7 +6658,7 @@
         <v>0.46587699999999999</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.7945487757498224</v>
       </c>
       <c r="D5" s="2">
@@ -6032,11 +6669,11 @@
         <v>1.4683889999999999</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.2883779434468661</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G8" si="7">F5/$A5</f>
+        <f t="shared" ref="G5:G8" si="6">F5/$A5</f>
         <v>0.91104724293085826</v>
       </c>
       <c r="H5">
@@ -6047,7 +6684,7 @@
         <v>7.8452456112089344</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.9806557014011168</v>
       </c>
       <c r="K5">
@@ -6058,7 +6695,7 @@
         <v>7.6837566119228562</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.96046957649035702</v>
       </c>
     </row>
@@ -6074,14 +6711,14 @@
         <v>7.9200904802140544</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D3:D7" si="7">C6/$A6</f>
         <v>0.4950056550133784</v>
       </c>
       <c r="E6">
         <v>0.84648599999999996</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12.643060842116704</v>
       </c>
       <c r="G6" s="2">
@@ -6096,7 +6733,7 @@
         <v>15.03675501918684</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.9397971886991775</v>
       </c>
       <c r="K6">
@@ -6107,7 +6744,7 @@
         <v>15.176513117882093</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.94853206986763083</v>
       </c>
     </row>
@@ -6123,7 +6760,7 @@
         <v>7.1352785075778797</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.22297745336180874</v>
       </c>
       <c r="E7">
@@ -6134,7 +6771,7 @@
         <v>16.803380718661781</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.52510564745818067</v>
       </c>
       <c r="H7">
@@ -6145,7 +6782,7 @@
         <v>26.378796711070301</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.8243373972209469</v>
       </c>
       <c r="K7">
@@ -6156,7 +6793,7 @@
         <v>29.251387137692685</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.91410584805289641</v>
       </c>
     </row>
@@ -6183,7 +6820,7 @@
         <v>15.510644372591447</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.24235381832174135</v>
       </c>
       <c r="H8">
@@ -6194,7 +6831,7 @@
         <v>36.502987756430343</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.57035918369422411</v>
       </c>
       <c r="K8">
@@ -6205,7 +6842,7 @@
         <v>51.912430586044358</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.8111317279069431</v>
       </c>
     </row>
@@ -6218,7 +6855,7 @@
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="8"/>
+      <c r="B45" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6229,10 +6866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6249,56 +6886,83 @@
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
     <col min="13" max="13" width="6.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="5">
         <v>1000</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="5">
         <v>1000</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5">
+        <v>1414</v>
+      </c>
+      <c r="G1" s="5">
+        <v>1414</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="I1" s="5">
         <v>2000</v>
       </c>
-      <c r="G1" s="7">
+      <c r="J1" s="5">
         <v>2000</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="8">
+        <v>2828</v>
+      </c>
+      <c r="M1" s="8">
+        <v>2828</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="O1" s="8">
         <v>4000</v>
       </c>
-      <c r="J1">
+      <c r="P1" s="8">
         <v>4000</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="8">
+        <v>5657</v>
+      </c>
+      <c r="S1" s="8">
+        <v>5657</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3">
+      <c r="U1" s="8">
         <v>8000</v>
       </c>
-      <c r="M1" s="3">
+      <c r="V1" s="8">
         <v>8000</v>
       </c>
-      <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.5519729999999998</v>
+        <v>2.609648</v>
       </c>
       <c r="C2" s="1">
         <f>B$2/B2</f>
@@ -6309,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10.067885</v>
+        <v>5.3162729999999998</v>
       </c>
       <c r="F2" s="1">
         <f>E$2/E2</f>
@@ -6320,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>39.986649999999997</v>
+        <v>10.186014</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I8" si="0">H$2/H2</f>
@@ -6331,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>158.33654999999999</v>
+        <v>20.007111999999999</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:L8" si="1">K$2/K2</f>
@@ -6341,299 +7005,530 @@
         <f>L2/$A2</f>
         <v>1</v>
       </c>
+      <c r="N2">
+        <v>40.344163000000002</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O8" si="2">N$2/N2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <f>O2/$A2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>76.810417999999999</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" ref="R2:R8" si="3">Q$2/Q2</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <f>R2/$A2</f>
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>159.34429600000001</v>
+      </c>
+      <c r="U2" s="1">
+        <f t="shared" ref="U2:U8" si="4">T$2/T2</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <f>U2/$A2</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.307288</v>
+        <v>1.3460559999999999</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C5" si="2">B$2/B3</f>
-        <v>1.9521123119006676</v>
+        <f t="shared" ref="C3:C5" si="5">B$2/B3</f>
+        <v>1.9387365755956663</v>
       </c>
       <c r="D3" s="2">
         <f>C3/$A3</f>
-        <v>0.97605615595033379</v>
+        <v>0.96936828779783313</v>
       </c>
       <c r="E3">
-        <v>5.0854860000000004</v>
+        <v>2.7887520000000001</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="3">E$2/E3</f>
-        <v>1.97972917436013</v>
+        <f t="shared" ref="F3:F6" si="6">E$2/E3</f>
+        <v>1.9063269161259229</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G8" si="4">F3/$A3</f>
-        <v>0.98986458718006498</v>
+        <f t="shared" ref="G3:G8" si="7">F3/$A3</f>
+        <v>0.95316345806296143</v>
       </c>
       <c r="H3">
-        <v>20.032609000000001</v>
+        <v>5.1485209999999997</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="0"/>
-        <v>1.9960779946336493</v>
+        <v>1.9784349719074663</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J8" si="5">I3/$A3</f>
-        <v>0.99803899731682466</v>
+        <f t="shared" ref="J3:J8" si="8">I3/$A3</f>
+        <v>0.98921748595373316</v>
       </c>
       <c r="K3">
-        <v>79.404148000000006</v>
+        <v>10.115954</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="1"/>
-        <v>1.9940589249821052</v>
+        <v>1.9777780721422813</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M8" si="6">L3/$A3</f>
-        <v>0.99702946249105262</v>
+        <f t="shared" ref="M3:M8" si="9">L3/$A3</f>
+        <v>0.98888903607114065</v>
+      </c>
+      <c r="N3">
+        <v>20.077003000000001</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0094713837518476</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P8" si="10">O3/$A3</f>
+        <v>1.0047356918759238</v>
+      </c>
+      <c r="Q3">
+        <v>38.630001999999998</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9883617401831872</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S8" si="11">R3/$A3</f>
+        <v>0.99418087009159362</v>
+      </c>
+      <c r="T3">
+        <v>79.801012</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="4"/>
+        <v>1.99677036677179</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" ref="V3:V8" si="12">U3/$A3</f>
+        <v>0.99838518338589499</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.71398099999999998</v>
+        <v>0.75954600000000005</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="2"/>
-        <v>3.5742869908302879</v>
+        <f t="shared" si="5"/>
+        <v>3.4357998067266498</v>
       </c>
       <c r="D4" s="2">
         <f>C4/$A4</f>
-        <v>0.89357174770757197</v>
+        <v>0.85894995168166244</v>
       </c>
       <c r="E4">
-        <v>2.6986629999999998</v>
+        <v>1.4971490000000001</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="3"/>
-        <v>3.7306936805373629</v>
+        <f t="shared" si="6"/>
+        <v>3.5509311364466729</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.93267342013434074</v>
+        <f t="shared" si="7"/>
+        <v>0.88773278411166823</v>
       </c>
       <c r="H4">
-        <v>10.537717000000001</v>
+        <v>2.7578930000000001</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>3.7946217382759468</v>
+        <v>3.6934043488996853</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="5"/>
-        <v>0.94865543456898671</v>
+        <f t="shared" si="8"/>
+        <v>0.92335108722492132</v>
       </c>
       <c r="K4">
-        <v>41.873767999999998</v>
+        <v>5.3318019999999997</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>3.7812825920036621</v>
+        <v>3.7524109109828161</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="6"/>
-        <v>0.94532064800091553</v>
+        <f t="shared" si="9"/>
+        <v>0.93810272774570402</v>
+      </c>
+      <c r="N4">
+        <v>10.612086</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8017184368841339</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.95042960922103348</v>
+      </c>
+      <c r="Q4">
+        <v>20.254394999999999</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7922839956463772</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="11"/>
+        <v>0.9480709989115943</v>
+      </c>
+      <c r="T4">
+        <v>41.869284</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8057564108332977</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" si="12"/>
+        <v>0.95143910270832444</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.40725600000000001</v>
+        <v>0.471636</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="2"/>
-        <v>6.2662624982811792</v>
+        <f t="shared" si="5"/>
+        <v>5.5331823694544093</v>
       </c>
       <c r="D5" s="2">
         <f>C5/$A5</f>
-        <v>0.7832828122851474</v>
+        <v>0.69164779618180117</v>
       </c>
       <c r="E5">
-        <v>1.3996219999999999</v>
+        <v>0.82578099999999999</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="3"/>
-        <v>7.1932886164978838</v>
+        <f t="shared" si="6"/>
+        <v>6.4378727531875883</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.89916107706223547</v>
+        <f t="shared" si="7"/>
+        <v>0.80473409414844854</v>
       </c>
       <c r="H5">
-        <v>5.3241759999999996</v>
+        <v>1.4689540000000001</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>7.5103922184390601</v>
+        <v>6.9341953526114493</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="5"/>
-        <v>0.93879902730488252</v>
+        <f t="shared" si="8"/>
+        <v>0.86677441907643116</v>
       </c>
       <c r="K5">
-        <v>20.952030000000001</v>
+        <v>2.7510720000000002</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>7.557098285941743</v>
+        <v>7.272478510195298</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="6"/>
-        <v>0.94463728574271788</v>
+        <f t="shared" si="9"/>
+        <v>0.90905981377441225</v>
+      </c>
+      <c r="N5">
+        <v>5.4091250000000004</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4585377487116675</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="10"/>
+        <v>0.93231721858895844</v>
+      </c>
+      <c r="Q5">
+        <v>10.229366000000001</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="3"/>
+        <v>7.508815111317749</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="11"/>
+        <v>0.93860188891471863</v>
+      </c>
+      <c r="T5">
+        <v>21.055475000000001</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="4"/>
+        <v>7.5678319296999952</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="12"/>
+        <v>0.9459789912124994</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.27912999999999999</v>
+        <v>0.356043</v>
       </c>
       <c r="C6" s="1">
         <f>B$2/B6</f>
-        <v>9.1425966395586276</v>
+        <v>7.3295865948775853</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D8" si="7">C6/$A6</f>
-        <v>0.57141228997241422</v>
+        <f t="shared" ref="D6:D8" si="13">C6/$A6</f>
+        <v>0.45809916217984908</v>
       </c>
       <c r="E6">
-        <v>0.78047</v>
+        <v>0.53859199999999996</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="3"/>
-        <v>12.899771932297206</v>
+        <f t="shared" si="6"/>
+        <v>9.8706869021448522</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.80623574576857537</v>
+        <f t="shared" si="7"/>
+        <v>0.61691793138405326</v>
       </c>
       <c r="H6">
-        <v>2.7537259999999999</v>
+        <v>0.85295299999999996</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>14.520925466077598</v>
+        <v>11.942057768716449</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="5"/>
-        <v>0.90755784162984987</v>
+        <f t="shared" si="8"/>
+        <v>0.74637861054477805</v>
       </c>
       <c r="K6">
-        <v>10.574536</v>
+        <v>1.4954369999999999</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>14.973380392293334</v>
+        <v>13.378772893809636</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="6"/>
-        <v>0.9358362745183334</v>
+        <f t="shared" si="9"/>
+        <v>0.83617330586310223</v>
+      </c>
+      <c r="N6">
+        <v>2.8227630000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>14.29243723259799</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="10"/>
+        <v>0.89327732703737439</v>
+      </c>
+      <c r="Q6">
+        <v>5.2521180000000003</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="3"/>
+        <v>14.624655805524551</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="11"/>
+        <v>0.91404098784528443</v>
+      </c>
+      <c r="T6">
+        <v>10.666952999999999</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="4"/>
+        <v>14.938126754659931</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" si="12"/>
+        <v>0.93363292216624572</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7">
-        <v>0.30300500000000002</v>
+        <v>0.39329199999999997</v>
       </c>
       <c r="C7" s="1">
         <f>B$2/B7</f>
-        <v>8.4222141548819316</v>
+        <v>6.6353955839427199</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="7"/>
-        <v>0.26319419234006036</v>
+        <f t="shared" si="13"/>
+        <v>0.20735611199821</v>
       </c>
       <c r="E7">
-        <v>0.55523699999999998</v>
+        <v>0.49972899999999998</v>
       </c>
       <c r="F7" s="1">
         <f>E$2/E7</f>
-        <v>18.1325902272363</v>
+        <v>10.638311965085077</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.56664344460113436</v>
+        <f t="shared" si="7"/>
+        <v>0.33244724890890864</v>
       </c>
       <c r="H7">
-        <v>1.5324899999999999</v>
+        <v>0.64728600000000003</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>26.092600930511782</v>
+        <v>15.73649669543293</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="5"/>
-        <v>0.8153937790784932</v>
+        <f t="shared" si="8"/>
+        <v>0.49176552173227905</v>
       </c>
       <c r="K7">
-        <v>5.4727680000000003</v>
+        <v>0.96098099999999997</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>28.931712435096824</v>
+        <v>20.819466774056927</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="6"/>
-        <v>0.90411601359677574</v>
+        <f t="shared" si="9"/>
+        <v>0.65060833668927898</v>
+      </c>
+      <c r="N7">
+        <v>1.6592830000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>24.314214633670087</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="10"/>
+        <v>0.75981920730219021</v>
+      </c>
+      <c r="Q7">
+        <v>2.8390270000000002</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>27.055191091877603</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="11"/>
+        <v>0.8454747216211751</v>
+      </c>
+      <c r="T7">
+        <v>5.5628849999999996</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="4"/>
+        <v>28.644183009355761</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="12"/>
+        <v>0.89513071904236752</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64</v>
       </c>
       <c r="B8">
-        <v>0.447266</v>
+        <v>0.57277</v>
       </c>
       <c r="C8" s="1">
         <f>B$2/B8</f>
-        <v>5.7057165087442367</v>
+        <v>4.5561883478534142</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="7"/>
-        <v>8.9151820449128699E-2</v>
+        <f t="shared" si="13"/>
+        <v>7.1190442935209597E-2</v>
       </c>
       <c r="E8">
-        <v>0.57432799999999995</v>
+        <v>0.667798</v>
       </c>
       <c r="F8" s="1">
         <f>E$2/E8</f>
-        <v>17.52985227953365</v>
+        <v>7.9608998529495443</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.27390394186771327</v>
+        <f t="shared" si="7"/>
+        <v>0.12438906020233663</v>
       </c>
       <c r="H8">
-        <v>1.0751329999999999</v>
+        <v>0.68823400000000001</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>37.192282257171904</v>
+        <v>14.800219111523116</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="5"/>
-        <v>0.581129410268311</v>
+        <f t="shared" si="8"/>
+        <v>0.23125342361754869</v>
       </c>
       <c r="K8">
-        <v>3.098319</v>
+        <v>0.85433400000000004</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>51.104018017512075</v>
+        <v>23.418372673919098</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="6"/>
-        <v>0.79850028152362618</v>
+        <f t="shared" si="9"/>
+        <v>0.36591207302998591</v>
+      </c>
+      <c r="N8">
+        <v>1.192224</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>33.839415244115202</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="10"/>
+        <v>0.52874086318930003</v>
+      </c>
+      <c r="Q8">
+        <v>1.7813060000000001</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
+        <v>43.120282534275411</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="11"/>
+        <v>0.6737544145980533</v>
+      </c>
+      <c r="T8">
+        <v>3.1787540000000001</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>50.127910495747706</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="12"/>
+        <v>0.78324860149605791</v>
       </c>
     </row>
   </sheetData>
@@ -6644,10 +7539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6655,19 +7550,22 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6692,8 +7590,24 @@
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6711,17 +7625,29 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <v>2.5519729999999998</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3">
+        <v>2.609648</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>40.344163000000002</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6739,17 +7665,29 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
-        <v>1.307288</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1.95</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.98</v>
+      <c r="H4">
+        <v>1.3460559999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.9387365755956663</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.96936828779783313</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>20.077003000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.0094713837518476</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.0047356918759238</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6767,17 +7705,29 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
-        <v>0.71398099999999998</v>
-      </c>
-      <c r="I5" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.89</v>
+      <c r="H5">
+        <v>0.75954600000000005</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.4357998067266498</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.85894995168166244</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>10.612086</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.8017184368841339</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.95042960922103348</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -6795,17 +7745,29 @@
       <c r="G6">
         <v>8</v>
       </c>
-      <c r="H6" s="3">
-        <v>0.40725600000000001</v>
-      </c>
-      <c r="I6" s="6">
-        <v>6.27</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.78</v>
+      <c r="H6">
+        <v>0.471636</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.5331823694544093</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.69164779618180117</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>5.4091250000000004</v>
+      </c>
+      <c r="N6" s="1">
+        <v>7.4585377487116675</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.93231721858895844</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>16</v>
       </c>
@@ -6823,17 +7785,29 @@
       <c r="G7">
         <v>16</v>
       </c>
-      <c r="H7" s="3">
-        <v>0.27912999999999999</v>
-      </c>
-      <c r="I7" s="6">
-        <v>9.14</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.56999999999999995</v>
+      <c r="H7">
+        <v>0.356043</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7.3295865948775853</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.45809916217984908</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>2.8227630000000001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>14.29243723259799</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.89327732703737439</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>32</v>
       </c>
@@ -6851,17 +7825,29 @@
       <c r="G8">
         <v>32</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.30300500000000002</v>
-      </c>
-      <c r="I8" s="6">
-        <v>8.42</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.26</v>
+      <c r="H8">
+        <v>0.39329199999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.6353955839427199</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.20735611199821</v>
+      </c>
+      <c r="L8">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>1.6592830000000001</v>
+      </c>
+      <c r="N8" s="1">
+        <v>24.314214633670087</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.75981920730219021</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>64</v>
       </c>
@@ -6879,17 +7865,29 @@
       <c r="G9">
         <v>64</v>
       </c>
-      <c r="H9" s="3">
-        <v>0.447266</v>
-      </c>
-      <c r="I9" s="6">
-        <v>5.71</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.09</v>
+      <c r="H9">
+        <v>0.57277</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.5561883478534142</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7.1190442935209597E-2</v>
+      </c>
+      <c r="L9">
+        <v>64</v>
+      </c>
+      <c r="M9">
+        <v>1.192224</v>
+      </c>
+      <c r="N9" s="1">
+        <v>33.839415244115202</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.52874086318930003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6906,16 +7904,28 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6923,27 +7933,39 @@
         <v>10.702173999999999</v>
       </c>
       <c r="C12" s="1">
-        <f>B$12/B12</f>
+        <f t="shared" ref="C12:C18" si="2">B$12/B12</f>
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <f>C12/$A3</f>
+        <f t="shared" ref="D12:D18" si="3">C12/$A3</f>
         <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
-        <v>10.067885</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H12">
+        <v>5.3162729999999998</v>
+      </c>
+      <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>76.810417999999999</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6951,27 +7973,39 @@
         <v>5.1709009999999997</v>
       </c>
       <c r="C13" s="1">
-        <f>B$12/B13</f>
+        <f t="shared" si="2"/>
         <v>2.069692303140207</v>
       </c>
       <c r="D13" s="2">
-        <f>C13/$A4</f>
+        <f t="shared" si="3"/>
         <v>1.0348461515701035</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
-        <v>5.0854860000000004</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1.98</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0.99</v>
+      <c r="H13">
+        <v>2.7887520000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.9063269161259229</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.95316345806296143</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>38.630001999999998</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.9883617401831872</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.99418087009159362</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -6979,27 +8013,39 @@
         <v>2.755932</v>
       </c>
       <c r="C14" s="1">
-        <f>B$12/B14</f>
+        <f t="shared" si="2"/>
         <v>3.8833229557187909</v>
       </c>
       <c r="D14" s="2">
-        <f>C14/$A5</f>
+        <f t="shared" si="3"/>
         <v>0.97083073892969773</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>2.6986629999999998</v>
-      </c>
-      <c r="I14" s="6">
-        <v>3.73</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.93</v>
+      <c r="H14">
+        <v>1.4971490000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.5509311364466729</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.88773278411166823</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>20.254394999999999</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3.7922839956463772</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.9480709989115943</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -7007,27 +8053,39 @@
         <v>1.4683889999999999</v>
       </c>
       <c r="C15" s="1">
-        <f>B$12/B15</f>
+        <f t="shared" si="2"/>
         <v>7.2883779434468661</v>
       </c>
       <c r="D15" s="2">
-        <f>C15/$A6</f>
+        <f t="shared" si="3"/>
         <v>0.91104724293085826</v>
       </c>
       <c r="G15">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>1.3996219999999999</v>
-      </c>
-      <c r="I15" s="6">
-        <v>7.19</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0.9</v>
+      <c r="H15">
+        <v>0.82578099999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6.4378727531875883</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.80473409414844854</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>10.229366000000001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7.508815111317749</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.93860188891471863</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7035,27 +8093,39 @@
         <v>0.84648599999999996</v>
       </c>
       <c r="C16" s="1">
-        <f>B$12/B16</f>
+        <f t="shared" si="2"/>
         <v>12.643060842116704</v>
       </c>
       <c r="D16" s="2">
-        <f>C16/$A7</f>
+        <f t="shared" si="3"/>
         <v>0.79019130263229398</v>
       </c>
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="3">
-        <v>0.78047</v>
-      </c>
-      <c r="I16" s="6">
-        <v>12.9</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0.81</v>
+      <c r="H16">
+        <v>0.53859199999999996</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9.8706869021448522</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.61691793138405326</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <v>5.2521180000000003</v>
+      </c>
+      <c r="N16" s="1">
+        <v>14.624655805524551</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.91404098784528443</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>32</v>
       </c>
@@ -7063,27 +8133,39 @@
         <v>0.63690599999999997</v>
       </c>
       <c r="C17" s="1">
-        <f>B$12/B17</f>
+        <f t="shared" si="2"/>
         <v>16.803380718661781</v>
       </c>
       <c r="D17" s="2">
-        <f>C17/$A8</f>
+        <f t="shared" si="3"/>
         <v>0.52510564745818067</v>
       </c>
       <c r="G17">
         <v>32</v>
       </c>
-      <c r="H17" s="3">
-        <v>0.55523699999999998</v>
-      </c>
-      <c r="I17" s="6">
-        <v>18.13</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.56999999999999995</v>
+      <c r="H17">
+        <v>0.49972899999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10.638311965085077</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.33244724890890864</v>
+      </c>
+      <c r="L17">
+        <v>32</v>
+      </c>
+      <c r="M17">
+        <v>2.8390270000000002</v>
+      </c>
+      <c r="N17" s="1">
+        <v>27.055191091877603</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.8454747216211751</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>64</v>
       </c>
@@ -7091,27 +8173,39 @@
         <v>0.68998899999999996</v>
       </c>
       <c r="C18" s="1">
-        <f>B$12/B18</f>
+        <f t="shared" si="2"/>
         <v>15.510644372591447</v>
       </c>
       <c r="D18" s="2">
-        <f>C18/$A9</f>
+        <f t="shared" si="3"/>
         <v>0.24235381832174135</v>
       </c>
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="3">
-        <v>0.57432799999999995</v>
-      </c>
-      <c r="I18" s="6">
-        <v>17.53</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0.27</v>
+      <c r="H18">
+        <v>0.667798</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.9608998529495443</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.12438906020233663</v>
+      </c>
+      <c r="L18">
+        <v>64</v>
+      </c>
+      <c r="M18">
+        <v>1.7813060000000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>43.120282534275411</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.6737544145980533</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -7128,16 +8222,28 @@
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7145,27 +8251,39 @@
         <v>42.174894999999999</v>
       </c>
       <c r="C21" s="1">
-        <f>B$21/B21</f>
+        <f t="shared" ref="C21:C27" si="4">B$21/B21</f>
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <f>C21/$A3</f>
+        <f t="shared" ref="D21:D27" si="5">C21/$A3</f>
         <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="3">
-        <v>39.986649999999997</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="H21">
+        <v>10.186014</v>
+      </c>
+      <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <v>1</v>
       </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>159.34429600000001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -7173,27 +8291,39 @@
         <v>20.477444999999999</v>
       </c>
       <c r="C22" s="1">
-        <f>B$21/B22</f>
+        <f t="shared" si="4"/>
         <v>2.0595779893438855</v>
       </c>
       <c r="D22" s="2">
-        <f>C22/$A4</f>
+        <f t="shared" si="5"/>
         <v>1.0297889946719427</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22" s="3">
-        <v>20.032609000000001</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="H22">
+        <v>5.1485209999999997</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.9784349719074663</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.98921748595373316</v>
+      </c>
+      <c r="L22">
         <v>2</v>
       </c>
-      <c r="J22" s="5">
-        <v>1</v>
+      <c r="M22">
+        <v>79.801012</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.99677036677179</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.99838518338589499</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -7201,27 +8331,39 @@
         <v>10.593958000000001</v>
       </c>
       <c r="C23" s="1">
-        <f>B$21/B23</f>
+        <f t="shared" si="4"/>
         <v>3.9810328679800313</v>
       </c>
       <c r="D23" s="2">
-        <f>C23/$A5</f>
+        <f t="shared" si="5"/>
         <v>0.99525821699500783</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
-      <c r="H23" s="3">
-        <v>10.537717000000001</v>
-      </c>
-      <c r="I23" s="6">
-        <v>3.79</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.95</v>
+      <c r="H23">
+        <v>2.7578930000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3.6934043488996853</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.92335108722492132</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>41.869284</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3.8057564108332977</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.95143910270832444</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
@@ -7229,27 +8371,39 @@
         <v>5.3758540000000004</v>
       </c>
       <c r="C24" s="1">
-        <f>B$21/B24</f>
+        <f t="shared" si="4"/>
         <v>7.8452456112089344</v>
       </c>
       <c r="D24" s="2">
-        <f>C24/$A6</f>
+        <f t="shared" si="5"/>
         <v>0.9806557014011168</v>
       </c>
       <c r="G24">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>5.3241759999999996</v>
-      </c>
-      <c r="I24" s="6">
-        <v>7.51</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0.94</v>
+      <c r="H24">
+        <v>1.4689540000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6.9341953526114493</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.86677441907643116</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>21.055475000000001</v>
+      </c>
+      <c r="N24" s="1">
+        <v>7.5678319296999952</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.9459789912124994</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16</v>
       </c>
@@ -7257,27 +8411,39 @@
         <v>2.8047870000000001</v>
       </c>
       <c r="C25" s="1">
-        <f>B$21/B25</f>
+        <f t="shared" si="4"/>
         <v>15.03675501918684</v>
       </c>
       <c r="D25" s="2">
-        <f>C25/$A7</f>
+        <f t="shared" si="5"/>
         <v>0.9397971886991775</v>
       </c>
       <c r="G25">
         <v>16</v>
       </c>
-      <c r="H25" s="3">
-        <v>2.7537259999999999</v>
-      </c>
-      <c r="I25" s="6">
-        <v>14.52</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.91</v>
+      <c r="H25">
+        <v>0.85295299999999996</v>
+      </c>
+      <c r="I25" s="1">
+        <v>11.942057768716449</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.74637861054477805</v>
+      </c>
+      <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>10.666952999999999</v>
+      </c>
+      <c r="N25" s="1">
+        <v>14.938126754659931</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.93363292216624572</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>32</v>
       </c>
@@ -7285,27 +8451,39 @@
         <v>1.5988180000000001</v>
       </c>
       <c r="C26" s="1">
-        <f>B$21/B26</f>
+        <f t="shared" si="4"/>
         <v>26.378796711070301</v>
       </c>
       <c r="D26" s="2">
-        <f>C26/$A8</f>
+        <f t="shared" si="5"/>
         <v>0.8243373972209469</v>
       </c>
       <c r="G26">
         <v>32</v>
       </c>
-      <c r="H26" s="3">
-        <v>1.5324899999999999</v>
-      </c>
-      <c r="I26" s="6">
-        <v>26.09</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.82</v>
+      <c r="H26">
+        <v>0.64728600000000003</v>
+      </c>
+      <c r="I26" s="1">
+        <v>15.73649669543293</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.49176552173227905</v>
+      </c>
+      <c r="L26">
+        <v>32</v>
+      </c>
+      <c r="M26">
+        <v>5.5628849999999996</v>
+      </c>
+      <c r="N26" s="1">
+        <v>28.644183009355761</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.89513071904236752</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>64</v>
       </c>
@@ -7313,27 +8491,39 @@
         <v>1.1553819999999999</v>
       </c>
       <c r="C27" s="1">
-        <f>B$21/B27</f>
+        <f t="shared" si="4"/>
         <v>36.502987756430343</v>
       </c>
       <c r="D27" s="2">
-        <f>C27/$A9</f>
+        <f t="shared" si="5"/>
         <v>0.57035918369422411</v>
       </c>
       <c r="G27">
         <v>64</v>
       </c>
-      <c r="H27" s="3">
-        <v>1.0751329999999999</v>
-      </c>
-      <c r="I27" s="6">
-        <v>37.19</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0.57999999999999996</v>
+      <c r="H27">
+        <v>0.68823400000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>14.800219111523116</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.23125342361754869</v>
+      </c>
+      <c r="L27">
+        <v>64</v>
+      </c>
+      <c r="M27">
+        <v>3.1787540000000001</v>
+      </c>
+      <c r="N27" s="1">
+        <v>50.127910495747706</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.78324860149605791</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -7350,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7367,27 +8557,27 @@
         <v>161.39912100000001</v>
       </c>
       <c r="C30" s="1">
-        <f>B$30/B30</f>
+        <f t="shared" ref="C30:C36" si="6">B$30/B30</f>
         <v>1</v>
       </c>
       <c r="D30" s="2">
-        <f>C30/$A3</f>
+        <f t="shared" ref="D30:D36" si="7">C30/$A3</f>
         <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="3">
-        <v>158.33654999999999</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="H30">
+        <v>20.007111999999999</v>
+      </c>
+      <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7395,27 +8585,27 @@
         <v>80.410162</v>
       </c>
       <c r="C31" s="1">
-        <f>B$30/B31</f>
+        <f t="shared" si="6"/>
         <v>2.0071980578773116</v>
       </c>
       <c r="D31" s="2">
-        <f>C31/$A4</f>
+        <f t="shared" si="7"/>
         <v>1.0035990289386558</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31" s="3">
-        <v>79.404148000000006</v>
-      </c>
-      <c r="I31" s="6">
-        <v>1.99</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1</v>
+      <c r="H31">
+        <v>10.115954</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.9777780721422813</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.98888903607114065</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -7423,24 +8613,24 @@
         <v>41.872722000000003</v>
       </c>
       <c r="C32" s="1">
-        <f>B$30/B32</f>
+        <f t="shared" si="6"/>
         <v>3.8545170528918562</v>
       </c>
       <c r="D32" s="2">
-        <f>C32/$A5</f>
+        <f t="shared" si="7"/>
         <v>0.96362926322296405</v>
       </c>
       <c r="G32">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
-        <v>41.873767999999998</v>
-      </c>
-      <c r="I32" s="6">
-        <v>3.78</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0.95</v>
+      <c r="H32">
+        <v>5.3318019999999997</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3.7524109109828161</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.93810272774570402</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -7451,24 +8641,24 @@
         <v>21.005236</v>
       </c>
       <c r="C33" s="1">
-        <f>B$30/B33</f>
+        <f t="shared" si="6"/>
         <v>7.6837566119228562</v>
       </c>
       <c r="D33" s="2">
-        <f>C33/$A6</f>
+        <f t="shared" si="7"/>
         <v>0.96046957649035702</v>
       </c>
       <c r="G33">
         <v>8</v>
       </c>
-      <c r="H33" s="3">
-        <v>20.952030000000001</v>
-      </c>
-      <c r="I33" s="6">
-        <v>7.56</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0.94</v>
+      <c r="H33">
+        <v>2.7510720000000002</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7.272478510195298</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.90905981377441225</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -7479,24 +8669,24 @@
         <v>10.634796</v>
       </c>
       <c r="C34" s="1">
-        <f>B$30/B34</f>
+        <f t="shared" si="6"/>
         <v>15.176513117882093</v>
       </c>
       <c r="D34" s="2">
-        <f>C34/$A7</f>
+        <f t="shared" si="7"/>
         <v>0.94853206986763083</v>
       </c>
       <c r="G34">
         <v>16</v>
       </c>
-      <c r="H34" s="3">
-        <v>10.574536</v>
-      </c>
-      <c r="I34" s="6">
-        <v>14.97</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0.94</v>
+      <c r="H34">
+        <v>1.4954369999999999</v>
+      </c>
+      <c r="I34" s="1">
+        <v>13.378772893809636</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.83617330586310223</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -7507,24 +8697,24 @@
         <v>5.5176569999999998</v>
       </c>
       <c r="C35" s="1">
-        <f>B$30/B35</f>
+        <f t="shared" si="6"/>
         <v>29.251387137692685</v>
       </c>
       <c r="D35" s="2">
-        <f>C35/$A8</f>
+        <f t="shared" si="7"/>
         <v>0.91410584805289641</v>
       </c>
       <c r="G35">
         <v>32</v>
       </c>
-      <c r="H35" s="3">
-        <v>5.4727680000000003</v>
-      </c>
-      <c r="I35" s="6">
-        <v>28.93</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0.9</v>
+      <c r="H35">
+        <v>0.96098099999999997</v>
+      </c>
+      <c r="I35" s="1">
+        <v>20.819466774056927</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.65060833668927898</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -7535,24 +8725,24 @@
         <v>3.1090650000000002</v>
       </c>
       <c r="C36" s="1">
-        <f>B$30/B36</f>
+        <f t="shared" si="6"/>
         <v>51.912430586044358</v>
       </c>
       <c r="D36" s="2">
-        <f>C36/$A9</f>
+        <f t="shared" si="7"/>
         <v>0.8111317279069431</v>
       </c>
       <c r="G36">
         <v>64</v>
       </c>
-      <c r="H36" s="3">
-        <v>3.098319</v>
-      </c>
-      <c r="I36" s="6">
-        <v>51.1</v>
-      </c>
-      <c r="J36" s="5">
-        <v>0.8</v>
+      <c r="H36">
+        <v>0.85433400000000004</v>
+      </c>
+      <c r="I36" s="1">
+        <v>23.418372673919098</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.36591207302998591</v>
       </c>
     </row>
   </sheetData>

--- a/projects/02-OpenMP/01-report/charts.xlsx
+++ b/projects/02-OpenMP/01-report/charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="strong" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Threads</t>
   </si>
@@ -204,10 +204,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -662,11 +662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1635530144"/>
-        <c:axId val="1660714560"/>
+        <c:axId val="-358214336"/>
+        <c:axId val="-358916176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1635530144"/>
+        <c:axId val="-358214336"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -780,12 +780,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660714560"/>
+        <c:crossAx val="-358916176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1660714560"/>
+        <c:axId val="-358916176"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -898,7 +898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635530144"/>
+        <c:crossAx val="-358214336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1407,11 +1407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1727874432"/>
-        <c:axId val="1722438512"/>
+        <c:axId val="-358187600"/>
+        <c:axId val="-358183328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1727874432"/>
+        <c:axId val="-358187600"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1525,12 +1525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1722438512"/>
+        <c:crossAx val="-358183328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1722438512"/>
+        <c:axId val="-358183328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1644,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727874432"/>
+        <c:crossAx val="-358187600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.02"/>
@@ -2460,11 +2460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1594659504"/>
-        <c:axId val="1656330960"/>
+        <c:axId val="-395800176"/>
+        <c:axId val="-395790064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1594659504"/>
+        <c:axId val="-395800176"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2541,6 +2541,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2577,12 +2578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656330960"/>
+        <c:crossAx val="-395790064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1656330960"/>
+        <c:axId val="-395790064"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2695,7 +2696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1594659504"/>
+        <c:crossAx val="-395800176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3510,11 +3511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1724212704"/>
-        <c:axId val="1724777200"/>
+        <c:axId val="-358132768"/>
+        <c:axId val="-358129008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1724212704"/>
+        <c:axId val="-358132768"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -3627,12 +3628,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724777200"/>
+        <c:crossAx val="-358129008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1724777200"/>
+        <c:axId val="-358129008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3744,7 +3745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724212704"/>
+        <c:crossAx val="-358132768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3788,6 +3789,779 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weak!$Q$49:$Q$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1414.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2828.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5657.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weak!$R$49:$R$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.906326916125923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.693404348899685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.272478510195298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.292437232598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0551910918776</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>50.12791049574771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-262860288"/>
+        <c:axId val="-262857808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-262860288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-262857808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-262857808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency (T1/Tp)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-262860288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>weak!$Q$15:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1414.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2828.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5657.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weak!$R$15:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.609648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.788752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.757893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.751072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.822763</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.839027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.178754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-263737008"/>
+        <c:axId val="-263419664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-263737008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-263419664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-263419664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.4"/>
+          <c:min val="2.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed-Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-263737008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3985,6 +4759,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6030,6 +6884,1012 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6123,13 +7983,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6154,13 +8014,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6177,6 +8037,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6450,7 +8370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -6609,7 +8529,7 @@
         <v>0.76727299999999998</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C3:C5" si="5">B$2/B4</f>
+        <f t="shared" ref="C4:C5" si="5">B$2/B4</f>
         <v>3.5183656925240427</v>
       </c>
       <c r="D4" s="2">
@@ -6711,7 +8631,7 @@
         <v>7.9200904802140544</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D3:D7" si="7">C6/$A6</f>
+        <f t="shared" ref="D6:D7" si="7">C6/$A6</f>
         <v>0.4950056550133784</v>
       </c>
       <c r="E6">
@@ -6866,10 +8786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V8"/>
+    <sheetView tabSelected="1" topLeftCell="P38" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6887,6 +8807,7 @@
     <col min="12" max="12" width="7" customWidth="1"/>
     <col min="13" max="13" width="6.83203125" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6920,40 +8841,40 @@
       <c r="J1" s="5">
         <v>2000</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="7">
         <v>2828</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="7">
         <v>2828</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="7">
         <v>4000</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="7">
         <v>4000</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="7">
         <v>5657</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="7">
         <v>5657</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="7">
         <v>8000</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1" s="7">
         <v>8000</v>
       </c>
     </row>
@@ -7531,8 +9452,180 @@
         <v>0.78324860149605791</v>
       </c>
     </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R15">
+        <v>2.609648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5">
+        <v>1414</v>
+      </c>
+      <c r="R16">
+        <v>2.7887520000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="R17">
+        <v>2.7578930000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="7">
+        <v>2828</v>
+      </c>
+      <c r="R18">
+        <v>2.7510720000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q19" s="7">
+        <v>4000</v>
+      </c>
+      <c r="R19">
+        <v>2.8227630000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q20" s="7">
+        <v>5657</v>
+      </c>
+      <c r="R20">
+        <v>2.8390270000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q21" s="7">
+        <v>8000</v>
+      </c>
+      <c r="R21">
+        <v>3.1787540000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q49" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q50" s="5">
+        <v>1414</v>
+      </c>
+      <c r="R50">
+        <v>1.9063269161259229</v>
+      </c>
+    </row>
+    <row r="51" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="R51">
+        <v>3.6934043488996853</v>
+      </c>
+    </row>
+    <row r="52" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q52" s="7">
+        <v>2828</v>
+      </c>
+      <c r="R52">
+        <v>7.272478510195298</v>
+      </c>
+    </row>
+    <row r="53" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q53" s="7">
+        <v>4000</v>
+      </c>
+      <c r="R53">
+        <v>14.29243723259799</v>
+      </c>
+    </row>
+    <row r="54" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q54" s="7">
+        <v>5657</v>
+      </c>
+      <c r="R54">
+        <v>27.055191091877603</v>
+      </c>
+    </row>
+    <row r="55" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q55" s="7">
+        <v>8000</v>
+      </c>
+      <c r="R55" s="1">
+        <v>50.127910495747706</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R74" s="6"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>2.609648</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77">
+        <v>2.7887520000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>2.7578930000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79">
+        <v>2.7510720000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>2.8227630000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>2.8390270000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>3.1787540000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7541,7 +9634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -7556,14 +9649,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -7602,10 +9695,10 @@
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
